--- a/biology/Biochimie/Acide_nucléique/Acide_nucléique.xlsx
+++ b/biology/Biochimie/Acide_nucléique/Acide_nucléique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acide_nucl%C3%A9ique</t>
+          <t>Acide_nucléique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un acide nucléique (désoxyribonucléique ou ribonucléique) est un assemblage de macromolécules, un polymère, dont l’unité de base, ou monomère, est un nucléotide et dont les nucléotides sont reliés entre eux par des liaisons phosphodiesters.
 Ces acides nucléiques sont d'une importance fondamentale chez tous les êtres vivants, en étant le support de leur information génétique.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Acide_nucl%C3%A9ique</t>
+          <t>Acide_nucléique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Types d'acide nucléique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il existe deux types d’acides nucléiques : l'acide désoxyribonucléique (ADN) et l'acide ribonucléique (ARN) : 
 l'ADN est le support de l’information génétique. Il contient le génome, tout ce qui est nécessaire à la formation des protéines, mais ne peut sortir du noyau ;
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Acide_nucl%C3%A9ique</t>
+          <t>Acide_nucléique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,11 +558,13 @@
           <t>Propriétés physiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les acides nucléiques absorbent à 260 nm du fait de l'aromaticité des bases azotées.
 On peut donc utiliser le rapport des absorbances à 260 et 280 nm A260/280 pour évaluer la contamination de protéines dans une solution d'acides nucléiques. La pureté de la solution est jugée satisfaisante lorsque ce rapport est de 1,8 à 2,0 pour l'ADN et de 2,0 à 2,2 pour l'ARN.
-Le rapport A260/230 peut quant à lui être utilisé pour évaluer présence d'autres contaminants tels que l'EDTA, l'urée, les polyholosides, le phénol, et l'isothiocyanate de guanidinium. Celui-ci indique une pureté satisfaisante lorsqu'il est compris entre 2,0 et 2,2[1]. 
+Le rapport A260/230 peut quant à lui être utilisé pour évaluer présence d'autres contaminants tels que l'EDTA, l'urée, les polyholosides, le phénol, et l'isothiocyanate de guanidinium. Celui-ci indique une pureté satisfaisante lorsqu'il est compris entre 2,0 et 2,2. 
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Acide_nucl%C3%A9ique</t>
+          <t>Acide_nucléique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve des acides nucléiques (ADN et ARN) dans les cellules de presque chaque organisme. Toute cellule eucaryote ou procaryote, soit les cellules animales, les cellules végétales, les bactéries, les mycètes (ou champignons) et même les mitochondries et les chloroplastes contiennent les deux types d’acide nucléique. Toutefois, les virus peuvent contenir de l’ADN ou de l’ARN, mais jamais les deux en même temps.
 Chez les eucaryotes, l’ADN se trouve dans le noyau cellulaire, dans la matrice des mitochondries et dans le stroma des plastes. Il s’associe à des protéines comme des histones (sauf pour l'ADN mitochondrial → non associé a des histones). Cet agencement d’ADN et de protéines forme la chromatine que l’on retrouve sous forme de chromosomes linéaires chez les eucaryotes (bien visibles durant la mitose) et sous forme de chromosome circulaire unique chez les procaryotes.
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Acide_nucl%C3%A9ique</t>
+          <t>Acide_nucléique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,14 +628,16 @@
           <t>Structure et composition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ARN est souvent en un seul brin alors que l'ADN est constitué par l'enroulement de deux chaînes pour former une double hélice = deux brins.
 Les acides nucléiques sont constitués d'un enchaînement de nucléotides reliés par des liaisons phosphodiesters. Les nucléotides se composent toujours de trois éléments fondamentaux :
 un sucre (ose à 5 carbones ou pentose) ;
 un groupe phosphate (acide phosphorique) ;
 une base nucléique, ou base azotée.
-Le tableau ci-dessous compare l'ARN à l'ADN selon leur structure et leur composition[2] : 
+Le tableau ci-dessous compare l'ARN à l'ADN selon leur structure et leur composition : 
 </t>
         </is>
       </c>
@@ -628,7 +648,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Acide_nucl%C3%A9ique</t>
+          <t>Acide_nucléique</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -646,24 +666,11 @@
           <t>Liaisons</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve différents types de liaisons dans les acides nucléiques : les liaisons fortes permettent la stabilité de la molécule, tandis que les liaisons faibles assurent la flexibilité nécessaire aux processus cellulaires comme la réplication, la transcription ou la traduction.
-Liaisons phosphodiester
-Dans les acides nucléiques, les différents nucléotides sont placés bout à bout et liés les uns aux autres par des liens 5’- 3’ (prononcé 5 prime – 3 prime) phosphodiester (PO4) : ces chiffres donnent le sens de la liaison : 5' - Nucléotide 1 - PO4 - Nucléotide 2 - PO4 - ... - 3'.
-Le phosphate se lie au carbone 3 du sucre du premier nucléotide et au carbone 5 du sucre du nucléotide suivant ; tout ceci par l'intermédiaire de deux liaisons ester. Les liaisons phosphodiester sont des liaisons covalentes. Le phosphate est donc le lien entre chaque sucre.
-Liaisons covalentes
-Les bases nucléiques sont attachées sur le carbone 1' des sucres par des liaisons covalentes.
-Les sucres du squelette sont reliés par des liaisons phosphodiester. Ce sont des liaisons ester covalentes entre une fonction alcool du sucre (5'-OH ou 3'-OH) et l'acide phosphorique.
-Création du squelette
-L’alternance des phosphates et des sucres produit le squelette de l’acide nucléique sur lequel s’attachent les bases nucléiques. Le polymère formé se nomme un brin et a l’allure schématique d’une « corde ».
-Le squelette est une partie relativement rigide puisqu'il est composé de liaisons covalentes, des liens chimiques très forts.
-Liaisons hydrogène
-Dans le cas de l’ADN, les deux brins sont disposés de telle sorte que toutes les bases nucléiques se retrouvent au centre de la structure. Cette structure dite en double hélice est maintenue par des liaisons hydrogène qui se forment entre les bases nucléiques complémentaires, des liaisons faibles que la cellule peut aisément défaire.
-L'adénine s’associe toujours avec la thymine (dans l'ADN) ou l’uracile (dans l'ARN) à l’aide de deux liens hydrogène.
-La guanine s’associe toujours avec la cytosine à l’aide de trois liens hydrogène.
-Création de la structure hélicoïdale
-Les deux brins (plus souvent retrouvés dans l'ADN, rares dans l'ARN) prennent la forme d'une double hélice (structure hélicoïdale). Cette structure souple est idéale pour permettre aux protéines telles les polymérases, les primases et les ligases, de dupliquer l'ADN.
 </t>
         </is>
       </c>
@@ -674,7 +681,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Acide_nucl%C3%A9ique</t>
+          <t>Acide_nucléique</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -689,17 +696,278 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Liaisons</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liaisons phosphodiester</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les acides nucléiques, les différents nucléotides sont placés bout à bout et liés les uns aux autres par des liens 5’- 3’ (prononcé 5 prime – 3 prime) phosphodiester (PO4) : ces chiffres donnent le sens de la liaison : 5' - Nucléotide 1 - PO4 - Nucléotide 2 - PO4 - ... - 3'.
+Le phosphate se lie au carbone 3 du sucre du premier nucléotide et au carbone 5 du sucre du nucléotide suivant ; tout ceci par l'intermédiaire de deux liaisons ester. Les liaisons phosphodiester sont des liaisons covalentes. Le phosphate est donc le lien entre chaque sucre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Acide_nucléique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acide_nucl%C3%A9ique</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liaisons</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Liaisons covalentes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bases nucléiques sont attachées sur le carbone 1' des sucres par des liaisons covalentes.
+Les sucres du squelette sont reliés par des liaisons phosphodiester. Ce sont des liaisons ester covalentes entre une fonction alcool du sucre (5'-OH ou 3'-OH) et l'acide phosphorique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Acide_nucléique</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acide_nucl%C3%A9ique</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liaisons</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Création du squelette</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’alternance des phosphates et des sucres produit le squelette de l’acide nucléique sur lequel s’attachent les bases nucléiques. Le polymère formé se nomme un brin et a l’allure schématique d’une « corde ».
+Le squelette est une partie relativement rigide puisqu'il est composé de liaisons covalentes, des liens chimiques très forts.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Acide_nucléique</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acide_nucl%C3%A9ique</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liaisons</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Liaisons hydrogène</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Dans le cas de l’ADN, les deux brins sont disposés de telle sorte que toutes les bases nucléiques se retrouvent au centre de la structure. Cette structure dite en double hélice est maintenue par des liaisons hydrogène qui se forment entre les bases nucléiques complémentaires, des liaisons faibles que la cellule peut aisément défaire.
+L'adénine s’associe toujours avec la thymine (dans l'ADN) ou l’uracile (dans l'ARN) à l’aide de deux liens hydrogène.
+La guanine s’associe toujours avec la cytosine à l’aide de trois liens hydrogène.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Acide_nucléique</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acide_nucl%C3%A9ique</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liaisons</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Création de la structure hélicoïdale</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les deux brins (plus souvent retrouvés dans l'ADN, rares dans l'ARN) prennent la forme d'une double hélice (structure hélicoïdale). Cette structure souple est idéale pour permettre aux protéines telles les polymérases, les primases et les ligases, de dupliquer l'ADN.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Acide_nucléique</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acide_nucl%C3%A9ique</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Ensemble, l’ADN et l’ARN jouent un rôle fondamental : ils sont le support de l’information génétique.
-Rôle de l'ADN
-L’ADN est le support de l’information génétique et détermine l'identité biologique de l’organisme (plante, grenouille ou humain).
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ensemble, l’ADN et l’ARN jouent un rôle fondamental : ils sont le support de l’information génétique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Acide_nucléique</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acide_nucl%C3%A9ique</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Rôles</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Rôle de l'ADN</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’ADN est le support de l’information génétique et détermine l'identité biologique de l’organisme (plante, grenouille ou humain).
 La préservation de cette information génétique se fait grâce à une duplication des molécules d'ADN avant la mitose (création de deux cellules filles identiques).
-Rôle de l'ARN
-L’ARN possède de nombreux rôles. Il existe différents types d’ARN et chacun d’entre eux joue un rôle spécifique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Acide_nucléique</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acide_nucl%C3%A9ique</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Rôles</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Rôle de l'ARN</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>L’ARN possède de nombreux rôles. Il existe différents types d’ARN et chacun d’entre eux joue un rôle spécifique.
 L'ARN messager (ARNm)
 Il est le produit de la maturation de l'ARN pré-messager (ARNpm), qui lui est le produit de la transcription opérée sur l’ADN. La maturation des ARNpm consiste en différentes modifications de la séquence telles que l'édition ou l'épissage. L'épissage de l'ARNpm consiste à enlever les introns et à relier les exons les uns à la suite des autres. Cette chaîne d'exons constitue alors l'ARN messager « produit final ». Contrairement à l'ARN prémessager, l'ARN messager quitte le noyau et est ultimement traduit en peptide dans le cytosol ou encore dans le réticulum endoplasmique. L'ARNm est le « plan de construction » d’une protéine. Il n'y a pas d'épissage chez les Procaryotes où l'ARN produit par la transcription est directement l'ARNm (en effet ces organismes ne possèdent pas de noyau et les ribosomes se fixent sur la molécule d'ARN pendant qu'elle est synthétisée). Dans le cas des eucaryotes. L'ARN prémessager nucléaire peut aussi être appelé ARN nucléaire hétérogène (ARNnh) car il se retrouve strictement dans le noyau et est composé d'introns et d'exons.
 L'ARN de transfert (ARNt)
@@ -719,31 +987,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Acide_nucl%C3%A9ique</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Biochimie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Acide_nucl%C3%A9ique</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Acide_nucléique</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acide_nucl%C3%A9ique</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Acides nucléiques dans les virus</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cellules eucaryotes et procaryotes possèdent à la fois de l’ADN et de l’ARN. À l'inverse chez les virus, il n’y a qu’un seul type d'acide nucléique : soit de l’ADN soit de l’ARN, qui peuvent être monocaténaire ou bicaténaire.
 On sépare les virus en plusieurs classes, selon la forme sous laquelle est présenté leur matériel génétique. Par exemple le génome du VIH est sous forme d'ARN.
@@ -751,31 +1021,33 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Acide_nucl%C3%A9ique</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Biochimie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Acide_nucl%C3%A9ique</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Acide_nucléique</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acide_nucl%C3%A9ique</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Absorptions des ultraviolets</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
